--- a/files/output/plano_152-40-6in_esp4-75_COMERCIAL_L1200.xlsx
+++ b/files/output/plano_152-40-6in_esp4-75_COMERCIAL_L1200.xlsx
@@ -59,7 +59,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -94,6 +94,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00EDE7F6"/>
         <bgColor rgb="00EDE7F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE0B2"/>
+        <bgColor rgb="00FFE0B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -179,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -214,17 +220,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -236,10 +245,10 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,11 +616,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -751,12 +759,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Qtd. de Bobinas</t>
+          <t>Refilo Mínimo</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14 mm  (regra: ≤ 3.0 mm → 10 mm | &gt; 3.0 mm → 14 mm)</t>
         </is>
       </c>
       <c r="C8" s="4" t="n"/>
@@ -770,12 +778,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Peso Informado</t>
+          <t>Qtd. de Bobinas</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>12 kg  (0.0 ton)</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" s="4" t="n"/>
@@ -789,12 +797,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Peso Médio / Bobina</t>
+          <t>Peso Informado</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>6 kg  (0.01 ton)</t>
+          <t>12,000 kg  (12.0 ton)</t>
         </is>
       </c>
       <c r="C10" s="4" t="n"/>
@@ -808,12 +816,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Perda Mínima Aceita</t>
+          <t>Peso Médio / Bobina</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>0.67%  (8.04 mm)</t>
+          <t>12,000 kg  (12.00 ton)</t>
         </is>
       </c>
       <c r="C11" s="4" t="n"/>
@@ -827,12 +835,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Perda Máxima Aceita</t>
+          <t>Perda Mínima Aceita</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>1.7%  (20.40 mm)</t>
+          <t>0.67%  (8.04 mm)</t>
         </is>
       </c>
       <c r="C12" s="4" t="n"/>
@@ -846,11 +854,13 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Total de Combinações</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>21</v>
+          <t>Perda Máxima Aceita</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>1.7%  (20.40 mm)</t>
+        </is>
       </c>
       <c r="C13" s="4" t="n"/>
       <c r="D13" s="4" t="n"/>
@@ -860,748 +870,765 @@
       <c r="H13" s="4" t="n"/>
       <c r="I13" s="5" t="n"/>
     </row>
-    <row r="15" ht="28" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Total de Combinações</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+      <c r="H14" s="4" t="n"/>
+      <c r="I14" s="5" t="n"/>
+    </row>
+    <row r="16" ht="28" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Combinação  (Âncora em destaque)</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>N Âncora</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>Total Cortes</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>Soma Cortes (mm)</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>Perda (mm)</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>Perda (%)</t>
         </is>
       </c>
-      <c r="H15" s="6" t="inlineStr">
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>Qtd. KG</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>152,40-6"(x1) + 101,60-4"(x1) + 75X40(x3)</t>
         </is>
       </c>
-      <c r="C16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="n">
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E17" s="10" t="n">
         <v>1191</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F17" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.0075</v>
       </c>
-      <c r="H16" s="12" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="H17" s="12" t="n">
+        <v>11910</v>
+      </c>
+      <c r="I17" s="13" t="inlineStr">
+        <is>
+          <t>Fora da regra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 250X75X25(x1) + 101,60-4"(x1)</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>0.008333</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>11900</v>
+      </c>
+      <c r="I18" s="13" t="inlineStr">
+        <is>
+          <t>Fora da regra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 200X75X25(x1) + 100X50(x2)</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>1189.5</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>0.008750000000000001</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>11895</v>
+      </c>
+      <c r="I19" s="13" t="inlineStr">
+        <is>
+          <t>Fora da regra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 200X50(x1) + 73,00-2.7/8"(x2)</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="16" t="n">
+        <v>1189</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>0.009167</v>
+      </c>
+      <c r="H20" s="12" t="n">
+        <v>11890</v>
+      </c>
+      <c r="I20" s="13" t="inlineStr">
+        <is>
+          <t>Fora da regra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 125X50X17(x2) + 75X40(x2)</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>1189</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>0.009167</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>11890</v>
+      </c>
+      <c r="I21" s="13" t="inlineStr">
+        <is>
+          <t>Fora da regra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 127,00-5"(x1) + 200X75(x1)</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <v>1187</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>0.010833</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>11870</v>
+      </c>
+      <c r="I22" s="13" t="inlineStr">
+        <is>
+          <t>Fora da regra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 200X75X25(x2)</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>0.011667</v>
+      </c>
+      <c r="H23" s="12" t="n">
+        <v>11860</v>
+      </c>
+      <c r="I23" s="7" t="inlineStr">
         <is>
           <t>✓ Válida</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 250X75X25(x1) + 101,60-4"(x1)</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="n">
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 150X60X20(x1) + 125X50X17(x2)</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>0.011667</v>
+      </c>
+      <c r="H24" s="12" t="n">
+        <v>11860</v>
+      </c>
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 88,90-3.1/2"(x2) + 100X50(x1)</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G25" s="11" t="n">
+        <v>0.011667</v>
+      </c>
+      <c r="H25" s="12" t="n">
+        <v>11860</v>
+      </c>
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 300X85X25(x1) + 150X50(x1)</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="15" t="n">
-        <v>1190</v>
-      </c>
-      <c r="F17" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" s="16" t="n">
-        <v>0.008333</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="I17" s="13" t="inlineStr">
+      <c r="E26" s="16" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H26" s="12" t="n">
+        <v>11850</v>
+      </c>
+      <c r="I26" s="7" t="inlineStr">
         <is>
           <t>✓ Válida</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="7" t="n">
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 95,00-3.3/4"(x2) + 75X40(x1)</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>11850</v>
+      </c>
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 100X50X17(x2) + 100X40(x2)</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <v>1185</v>
+      </c>
+      <c r="F28" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G28" s="17" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H28" s="12" t="n">
+        <v>11850</v>
+      </c>
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 250X85X25(x1) + 200X50(x1)</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 200X75X25(x1) + 100X50(x2)</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="n">
+      <c r="E29" s="10" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>0.013333</v>
+      </c>
+      <c r="H29" s="12" t="n">
+        <v>11840</v>
+      </c>
+      <c r="I29" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 150X50(x1) + 100X40(x3)</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F30" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="G30" s="17" t="n">
+        <v>0.013333</v>
+      </c>
+      <c r="H30" s="12" t="n">
+        <v>11840</v>
+      </c>
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 73,00-2.7/8"(x2) + 75X40(x2)</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>1184</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>0.013333</v>
+      </c>
+      <c r="H31" s="12" t="n">
+        <v>11840</v>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 300X85X25(x1) + 76,20-3"(x1)</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="16" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F32" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" s="17" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H32" s="12" t="n">
+        <v>11820</v>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 100X40(x1) + 75X40(x4)</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>1182</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H33" s="12" t="n">
+        <v>11820</v>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 150X60X20(x1) + 73,00-2.7/8"(x2)</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="10" t="n">
-        <v>1189.5</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="G18" s="11" t="n">
-        <v>0.008750000000000001</v>
-      </c>
-      <c r="H18" s="12" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
+      <c r="E34" s="16" t="n">
+        <v>1181</v>
+      </c>
+      <c r="F34" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="G34" s="17" t="n">
+        <v>0.015833</v>
+      </c>
+      <c r="H34" s="12" t="n">
+        <v>11810</v>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
         <is>
           <t>✓ Válida</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="13" t="n">
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 88,90-3.1/2"(x1) + 125X50X17(x2)</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 200X50(x1) + 73,00-2.7/8"(x2)</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13" t="n">
+      <c r="E35" s="10" t="n">
+        <v>1181</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>0.015833</v>
+      </c>
+      <c r="H35" s="12" t="n">
+        <v>11810</v>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" s="15" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 76,20-3"(x1) + 100X40(x3)</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="16" t="n">
+        <v>1181</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="G36" s="17" t="n">
+        <v>0.015833</v>
+      </c>
+      <c r="H36" s="12" t="n">
+        <v>11810</v>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>✓ Válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>152,40-6"(x1) + 114,00-4.1/2"(x1) + 100X50(x2)</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="n">
-        <v>1189</v>
-      </c>
-      <c r="F19" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" s="16" t="n">
-        <v>0.009167</v>
-      </c>
-      <c r="H19" s="12" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="I19" s="13" t="inlineStr">
+      <c r="E37" s="10" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>0.016667</v>
+      </c>
+      <c r="H37" s="12" t="n">
+        <v>11800</v>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
         <is>
           <t>✓ Válida</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 125X50X17(x2) + 75X40(x2)</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>1189</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="G20" s="11" t="n">
-        <v>0.009167</v>
-      </c>
-      <c r="H20" s="12" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 127,00-5"(x1) + 200X75(x1)</t>
-        </is>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F21" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="G21" s="16" t="n">
-        <v>0.010833</v>
-      </c>
-      <c r="H21" s="12" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="I21" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 200X75X25(x2)</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G22" s="11" t="n">
-        <v>0.011667</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 150X60X20(x1) + 125X50X17(x2)</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="15" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F23" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="G23" s="16" t="n">
-        <v>0.011667</v>
-      </c>
-      <c r="H23" s="12" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="I23" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 88,90-3.1/2"(x2) + 100X50(x1)</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>1186</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G24" s="11" t="n">
-        <v>0.011667</v>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 300X85X25(x1) + 150X50(x1)</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15" t="n">
-        <v>1185</v>
-      </c>
-      <c r="F25" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="G25" s="16" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H25" s="12" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="I25" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 95,00-3.3/4"(x2) + 75X40(x1)</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>1185</v>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="G26" s="11" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H26" s="12" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B27" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 100X50X17(x2) + 100X40(x2)</t>
-        </is>
-      </c>
-      <c r="C27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="15" t="n">
-        <v>1185</v>
-      </c>
-      <c r="F27" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="G27" s="16" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="I27" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 250X85X25(x1) + 200X50(x1)</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="10" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G28" s="11" t="n">
-        <v>0.013333</v>
-      </c>
-      <c r="H28" s="12" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="I28" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="B29" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 150X50(x1) + 100X40(x3)</t>
-        </is>
-      </c>
-      <c r="C29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" s="15" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F29" s="15" t="n">
-        <v>16</v>
-      </c>
-      <c r="G29" s="16" t="n">
-        <v>0.013333</v>
-      </c>
-      <c r="H29" s="12" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="I29" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 73,00-2.7/8"(x2) + 75X40(x2)</t>
-        </is>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G30" s="11" t="n">
-        <v>0.013333</v>
-      </c>
-      <c r="H30" s="12" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B31" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 300X85X25(x1) + 76,20-3"(x1)</t>
-        </is>
-      </c>
-      <c r="C31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="15" t="n">
-        <v>1182</v>
-      </c>
-      <c r="F31" s="15" t="n">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H31" s="12" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="I31" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 100X40(x1) + 75X40(x4)</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E32" s="10" t="n">
-        <v>1182</v>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G32" s="11" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H32" s="12" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="B33" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 150X60X20(x1) + 73,00-2.7/8"(x2)</t>
-        </is>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>1181</v>
-      </c>
-      <c r="F33" s="15" t="n">
-        <v>19</v>
-      </c>
-      <c r="G33" s="16" t="n">
-        <v>0.015833</v>
-      </c>
-      <c r="H33" s="12" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="I33" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 88,90-3.1/2"(x1) + 125X50X17(x2)</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="10" t="n">
-        <v>1181</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="G34" s="11" t="n">
-        <v>0.015833</v>
-      </c>
-      <c r="H34" s="12" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="B35" s="14" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 76,20-3"(x1) + 100X40(x3)</t>
-        </is>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <v>1181</v>
-      </c>
-      <c r="F35" s="15" t="n">
-        <v>19</v>
-      </c>
-      <c r="G35" s="16" t="n">
-        <v>0.015833</v>
-      </c>
-      <c r="H35" s="12" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="I35" s="13" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>152,40-6"(x1) + 114,00-4.1/2"(x1) + 100X50(x2)</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" s="10" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G36" s="11" t="n">
-        <v>0.016667</v>
-      </c>
-      <c r="H36" s="12" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="I36" s="7" t="inlineStr">
-        <is>
-          <t>✓ Válida</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
@@ -1613,6 +1640,7 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B14:I14"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B4:I4"/>
   </mergeCells>
@@ -1644,7 +1672,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="17" t="inlineStr">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>DETALHES POR COMBINAÇÃO</t>
         </is>
@@ -1688,1677 +1716,1677 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="A3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C3" s="20" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="A4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C4" s="23" t="inlineStr">
         <is>
           <t>101,60-4"</t>
         </is>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="24" t="n">
         <v>308</v>
       </c>
-      <c r="E4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23" t="n">
+      <c r="E4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24" t="n">
         <v>308</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>3.08</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="A5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>75X40</t>
         </is>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="24" t="n">
         <v>414</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>4.14</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C6" s="20" t="inlineStr">
+      <c r="C6" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C7" s="22" t="inlineStr">
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>250X75X25</t>
         </is>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="24" t="n">
         <v>413</v>
       </c>
-      <c r="E7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23" t="n">
+      <c r="E7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24" t="n">
         <v>413</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>4.13</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C8" s="22" t="inlineStr">
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C8" s="23" t="inlineStr">
         <is>
           <t>101,60-4"</t>
         </is>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="24" t="n">
         <v>308</v>
       </c>
-      <c r="E8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="n">
+      <c r="E8" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24" t="n">
         <v>308</v>
       </c>
       <c r="G8" s="12" t="n">
-        <v>3.08</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="n">
+      <c r="F9" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="inlineStr">
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C10" s="23" t="inlineStr">
         <is>
           <t>200X75X25</t>
         </is>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="24" t="n">
         <v>358.5</v>
       </c>
-      <c r="E10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23" t="n">
+      <c r="E10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24" t="n">
         <v>358.5</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>3.58</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="inlineStr">
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C11" s="23" t="inlineStr">
         <is>
           <t>100X50</t>
         </is>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="24" t="n">
         <v>181</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="24" t="n">
         <v>362</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>3.62</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C12" s="20" t="inlineStr">
+      <c r="C12" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D12" s="21" t="n">
+      <c r="D12" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="F12" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C13" s="22" t="inlineStr">
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C13" s="23" t="inlineStr">
         <is>
           <t>200X50</t>
         </is>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="24" t="n">
         <v>281</v>
       </c>
-      <c r="E13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="n">
+      <c r="E13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="n">
         <v>281</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>2.81</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C14" s="22" t="inlineStr">
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C14" s="23" t="inlineStr">
         <is>
           <t>73,00-2.7/8"</t>
         </is>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="24" t="n">
         <v>219.5</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="24" t="n">
         <v>439</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>4.39</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="inlineStr">
+      <c r="B15" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="C15" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C16" s="22" t="inlineStr">
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C16" s="23" t="inlineStr">
         <is>
           <t>125X50X17</t>
         </is>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="24" t="n">
         <v>222</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="24" t="n">
         <v>444</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>4.44</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B17" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C17" s="22" t="inlineStr">
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C17" s="23" t="inlineStr">
         <is>
           <t>75X40</t>
         </is>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="24" t="n">
         <v>276</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>2.76</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C18" s="20" t="inlineStr">
+      <c r="C18" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D18" s="21" t="n">
+      <c r="D18" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G18" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="n">
+      <c r="A19" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C19" s="22" t="inlineStr">
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C19" s="23" t="inlineStr">
         <is>
           <t>127,00-5"</t>
         </is>
       </c>
-      <c r="D19" s="23" t="n">
+      <c r="D19" s="24" t="n">
         <v>387</v>
       </c>
-      <c r="E19" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23" t="n">
+      <c r="E19" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24" t="n">
         <v>387</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>3.87</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="n">
+      <c r="A20" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C20" s="22" t="inlineStr">
+      <c r="B20" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C20" s="23" t="inlineStr">
         <is>
           <t>200X75</t>
         </is>
       </c>
-      <c r="D20" s="23" t="n">
+      <c r="D20" s="24" t="n">
         <v>331</v>
       </c>
-      <c r="E20" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23" t="n">
+      <c r="E20" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24" t="n">
         <v>331</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>3.31</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B21" s="19" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="C21" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="21" t="n">
+      <c r="F21" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B22" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C22" s="22" t="inlineStr">
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C22" s="23" t="inlineStr">
         <is>
           <t>200X75X25</t>
         </is>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="24" t="n">
         <v>358.5</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E22" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="24" t="n">
         <v>717</v>
       </c>
       <c r="G22" s="12" t="n">
-        <v>7.17</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C23" s="20" t="inlineStr">
+      <c r="C23" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="21" t="n">
+      <c r="F23" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G23" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="n">
+      <c r="A24" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B24" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C24" s="22" t="inlineStr">
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C24" s="23" t="inlineStr">
         <is>
           <t>150X60X20</t>
         </is>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="24" t="n">
         <v>273</v>
       </c>
-      <c r="E24" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="23" t="n">
+      <c r="E24" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24" t="n">
         <v>273</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>2.73</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="n">
+      <c r="A25" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C25" s="22" t="inlineStr">
+      <c r="B25" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C25" s="23" t="inlineStr">
         <is>
           <t>125X50X17</t>
         </is>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="24" t="n">
         <v>222</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="24" t="n">
         <v>444</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>4.44</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="n">
+      <c r="A26" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="19" t="inlineStr">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C26" s="20" t="inlineStr">
+      <c r="C26" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D26" s="21" t="n">
+      <c r="D26" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18" t="n">
+      <c r="A27" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C27" s="22" t="inlineStr">
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="inlineStr">
         <is>
           <t>88,90-3.1/2"</t>
         </is>
       </c>
-      <c r="D27" s="23" t="n">
+      <c r="D27" s="24" t="n">
         <v>268</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="E27" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="24" t="n">
         <v>536</v>
       </c>
       <c r="G27" s="12" t="n">
-        <v>5.36</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="n">
+      <c r="A28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C28" s="22" t="inlineStr">
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C28" s="23" t="inlineStr">
         <is>
           <t>100X50</t>
         </is>
       </c>
-      <c r="D28" s="23" t="n">
+      <c r="D28" s="24" t="n">
         <v>181</v>
       </c>
-      <c r="E28" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23" t="n">
+      <c r="E28" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24" t="n">
         <v>181</v>
       </c>
       <c r="G28" s="12" t="n">
-        <v>1.81</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18" t="n">
+      <c r="A29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="19" t="inlineStr">
+      <c r="B29" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C29" s="20" t="inlineStr">
+      <c r="C29" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D29" s="21" t="n">
+      <c r="D29" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="21" t="n">
+      <c r="F29" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="n">
+      <c r="A30" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B30" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C30" s="22" t="inlineStr">
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C30" s="23" t="inlineStr">
         <is>
           <t>300X85X25</t>
         </is>
       </c>
-      <c r="D30" s="23" t="n">
+      <c r="D30" s="24" t="n">
         <v>484</v>
       </c>
-      <c r="E30" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23" t="n">
+      <c r="E30" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24" t="n">
         <v>484</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>4.84</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="18" t="n">
+      <c r="A31" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="B31" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C31" s="22" t="inlineStr">
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C31" s="23" t="inlineStr">
         <is>
           <t>150X50</t>
         </is>
       </c>
-      <c r="D31" s="23" t="n">
+      <c r="D31" s="24" t="n">
         <v>232</v>
       </c>
-      <c r="E31" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23" t="n">
+      <c r="E31" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24" t="n">
         <v>232</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>2.32</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B32" s="19" t="inlineStr">
+      <c r="B32" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C32" s="20" t="inlineStr">
+      <c r="C32" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D32" s="21" t="n">
+      <c r="D32" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="21" t="n">
+      <c r="F32" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="18" t="n">
+      <c r="A33" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B33" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C33" s="22" t="inlineStr">
+      <c r="B33" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C33" s="23" t="inlineStr">
         <is>
           <t>95,00-3.3/4"</t>
         </is>
       </c>
-      <c r="D33" s="23" t="n">
+      <c r="D33" s="24" t="n">
         <v>289</v>
       </c>
-      <c r="E33" s="18" t="n">
+      <c r="E33" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="23" t="n">
+      <c r="F33" s="24" t="n">
         <v>578</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>5.78</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="n">
+      <c r="A34" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B34" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C34" s="22" t="inlineStr">
+      <c r="B34" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C34" s="23" t="inlineStr">
         <is>
           <t>75X40</t>
         </is>
       </c>
-      <c r="D34" s="23" t="n">
+      <c r="D34" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="E34" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="23" t="n">
+      <c r="E34" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="24" t="n">
         <v>138</v>
       </c>
       <c r="G34" s="12" t="n">
-        <v>1.38</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="n">
+      <c r="A35" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B35" s="19" t="inlineStr">
+      <c r="B35" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C35" s="20" t="inlineStr">
+      <c r="C35" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D35" s="21" t="n">
+      <c r="D35" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="21" t="n">
+      <c r="F35" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="n">
+      <c r="A36" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B36" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C36" s="22" t="inlineStr">
+      <c r="B36" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C36" s="23" t="inlineStr">
         <is>
           <t>100X50X17</t>
         </is>
       </c>
-      <c r="D36" s="23" t="n">
+      <c r="D36" s="24" t="n">
         <v>197</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="24" t="n">
         <v>394</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>3.94</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="n">
+      <c r="A37" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B37" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C37" s="22" t="inlineStr">
+      <c r="B37" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C37" s="23" t="inlineStr">
         <is>
           <t>100X40</t>
         </is>
       </c>
-      <c r="D37" s="23" t="n">
+      <c r="D37" s="24" t="n">
         <v>161</v>
       </c>
-      <c r="E37" s="18" t="n">
+      <c r="E37" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="24" t="n">
         <v>322</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>3.22</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="n">
+      <c r="A38" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="B38" s="19" t="inlineStr">
+      <c r="B38" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C38" s="20" t="inlineStr">
+      <c r="C38" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D38" s="21" t="n">
+      <c r="D38" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F38" s="21" t="n">
+      <c r="F38" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G38" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="18" t="n">
+      <c r="A39" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="B39" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C39" s="22" t="inlineStr">
+      <c r="B39" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C39" s="23" t="inlineStr">
         <is>
           <t>250X85X25</t>
         </is>
       </c>
-      <c r="D39" s="23" t="n">
+      <c r="D39" s="24" t="n">
         <v>434</v>
       </c>
-      <c r="E39" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="23" t="n">
+      <c r="E39" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24" t="n">
         <v>434</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>4.34</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="18" t="n">
+      <c r="A40" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="B40" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C40" s="22" t="inlineStr">
+      <c r="B40" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C40" s="23" t="inlineStr">
         <is>
           <t>200X50</t>
         </is>
       </c>
-      <c r="D40" s="23" t="n">
+      <c r="D40" s="24" t="n">
         <v>281</v>
       </c>
-      <c r="E40" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="23" t="n">
+      <c r="E40" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24" t="n">
         <v>281</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>2.81</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18" t="n">
+      <c r="A41" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B41" s="19" t="inlineStr">
+      <c r="B41" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C41" s="20" t="inlineStr">
+      <c r="C41" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D41" s="21" t="n">
+      <c r="D41" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="21" t="n">
+      <c r="F41" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="18" t="n">
+      <c r="A42" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B42" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C42" s="22" t="inlineStr">
+      <c r="B42" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C42" s="23" t="inlineStr">
         <is>
           <t>150X50</t>
         </is>
       </c>
-      <c r="D42" s="23" t="n">
+      <c r="D42" s="24" t="n">
         <v>232</v>
       </c>
-      <c r="E42" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="23" t="n">
+      <c r="E42" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="24" t="n">
         <v>232</v>
       </c>
       <c r="G42" s="12" t="n">
-        <v>2.32</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="18" t="n">
+      <c r="A43" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B43" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C43" s="22" t="inlineStr">
+      <c r="B43" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C43" s="23" t="inlineStr">
         <is>
           <t>100X40</t>
         </is>
       </c>
-      <c r="D43" s="23" t="n">
+      <c r="D43" s="24" t="n">
         <v>161</v>
       </c>
-      <c r="E43" s="18" t="n">
+      <c r="E43" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="24" t="n">
         <v>483</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>4.83</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="18" t="n">
+      <c r="A44" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="B44" s="19" t="inlineStr">
+      <c r="B44" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C44" s="20" t="inlineStr">
+      <c r="C44" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D44" s="21" t="n">
+      <c r="D44" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="21" t="n">
+      <c r="F44" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G44" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="18" t="n">
+      <c r="A45" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="B45" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C45" s="22" t="inlineStr">
+      <c r="B45" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C45" s="23" t="inlineStr">
         <is>
           <t>73,00-2.7/8"</t>
         </is>
       </c>
-      <c r="D45" s="23" t="n">
+      <c r="D45" s="24" t="n">
         <v>219.5</v>
       </c>
-      <c r="E45" s="18" t="n">
+      <c r="E45" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="24" t="n">
         <v>439</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>4.39</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="18" t="n">
+      <c r="A46" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="B46" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C46" s="22" t="inlineStr">
+      <c r="B46" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C46" s="23" t="inlineStr">
         <is>
           <t>75X40</t>
         </is>
       </c>
-      <c r="D46" s="23" t="n">
+      <c r="D46" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="E46" s="18" t="n">
+      <c r="E46" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="24" t="n">
         <v>276</v>
       </c>
       <c r="G46" s="12" t="n">
-        <v>2.76</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="18" t="n">
+      <c r="A47" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="B47" s="19" t="inlineStr">
+      <c r="B47" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C47" s="20" t="inlineStr">
+      <c r="C47" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D47" s="21" t="n">
+      <c r="D47" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E47" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F47" s="21" t="n">
+      <c r="F47" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G47" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="18" t="n">
+      <c r="A48" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="B48" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C48" s="22" t="inlineStr">
+      <c r="B48" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C48" s="23" t="inlineStr">
         <is>
           <t>300X85X25</t>
         </is>
       </c>
-      <c r="D48" s="23" t="n">
+      <c r="D48" s="24" t="n">
         <v>484</v>
       </c>
-      <c r="E48" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="23" t="n">
+      <c r="E48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="24" t="n">
         <v>484</v>
       </c>
       <c r="G48" s="12" t="n">
-        <v>4.84</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="18" t="n">
+      <c r="A49" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="B49" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C49" s="22" t="inlineStr">
+      <c r="B49" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C49" s="23" t="inlineStr">
         <is>
           <t>76,20-3"</t>
         </is>
       </c>
-      <c r="D49" s="23" t="n">
+      <c r="D49" s="24" t="n">
         <v>229</v>
       </c>
-      <c r="E49" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="23" t="n">
+      <c r="E49" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="24" t="n">
         <v>229</v>
       </c>
       <c r="G49" s="12" t="n">
-        <v>2.29</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="18" t="n">
+      <c r="A50" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="B50" s="19" t="inlineStr">
+      <c r="B50" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C50" s="20" t="inlineStr">
+      <c r="C50" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D50" s="21" t="n">
+      <c r="D50" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E50" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="21" t="n">
+      <c r="F50" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G50" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="18" t="n">
+      <c r="A51" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="B51" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C51" s="22" t="inlineStr">
+      <c r="B51" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C51" s="23" t="inlineStr">
         <is>
           <t>100X40</t>
         </is>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="24" t="n">
         <v>161</v>
       </c>
-      <c r="E51" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="23" t="n">
+      <c r="E51" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="24" t="n">
         <v>161</v>
       </c>
       <c r="G51" s="12" t="n">
-        <v>1.61</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="18" t="n">
+      <c r="A52" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="B52" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C52" s="22" t="inlineStr">
+      <c r="B52" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C52" s="23" t="inlineStr">
         <is>
           <t>75X40</t>
         </is>
       </c>
-      <c r="D52" s="23" t="n">
+      <c r="D52" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="E52" s="18" t="n">
+      <c r="E52" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="24" t="n">
         <v>552</v>
       </c>
       <c r="G52" s="12" t="n">
-        <v>5.52</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="18" t="n">
+      <c r="A53" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="B53" s="19" t="inlineStr">
+      <c r="B53" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C53" s="20" t="inlineStr">
+      <c r="C53" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D53" s="21" t="n">
+      <c r="D53" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E53" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F53" s="21" t="n">
+      <c r="F53" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G53" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="18" t="n">
+      <c r="A54" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="B54" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C54" s="22" t="inlineStr">
+      <c r="B54" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C54" s="23" t="inlineStr">
         <is>
           <t>150X60X20</t>
         </is>
       </c>
-      <c r="D54" s="23" t="n">
+      <c r="D54" s="24" t="n">
         <v>273</v>
       </c>
-      <c r="E54" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="23" t="n">
+      <c r="E54" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="24" t="n">
         <v>273</v>
       </c>
       <c r="G54" s="12" t="n">
-        <v>2.73</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="18" t="n">
+      <c r="A55" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="B55" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C55" s="22" t="inlineStr">
+      <c r="B55" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C55" s="23" t="inlineStr">
         <is>
           <t>73,00-2.7/8"</t>
         </is>
       </c>
-      <c r="D55" s="23" t="n">
+      <c r="D55" s="24" t="n">
         <v>219.5</v>
       </c>
-      <c r="E55" s="18" t="n">
+      <c r="E55" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="24" t="n">
         <v>439</v>
       </c>
       <c r="G55" s="12" t="n">
-        <v>4.39</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="18" t="n">
+      <c r="A56" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="B56" s="19" t="inlineStr">
+      <c r="B56" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C56" s="20" t="inlineStr">
+      <c r="C56" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D56" s="21" t="n">
+      <c r="D56" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E56" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="21" t="n">
+      <c r="F56" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G56" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="18" t="n">
+      <c r="A57" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="B57" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C57" s="22" t="inlineStr">
+      <c r="B57" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C57" s="23" t="inlineStr">
         <is>
           <t>88,90-3.1/2"</t>
         </is>
       </c>
-      <c r="D57" s="23" t="n">
+      <c r="D57" s="24" t="n">
         <v>268</v>
       </c>
-      <c r="E57" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="23" t="n">
+      <c r="E57" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="24" t="n">
         <v>268</v>
       </c>
       <c r="G57" s="12" t="n">
-        <v>2.68</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="18" t="n">
+      <c r="A58" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="B58" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C58" s="22" t="inlineStr">
+      <c r="B58" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C58" s="23" t="inlineStr">
         <is>
           <t>125X50X17</t>
         </is>
       </c>
-      <c r="D58" s="23" t="n">
+      <c r="D58" s="24" t="n">
         <v>222</v>
       </c>
-      <c r="E58" s="18" t="n">
+      <c r="E58" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="23" t="n">
+      <c r="F58" s="24" t="n">
         <v>444</v>
       </c>
       <c r="G58" s="12" t="n">
-        <v>4.44</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="18" t="n">
+      <c r="A59" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="B59" s="19" t="inlineStr">
+      <c r="B59" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C59" s="20" t="inlineStr">
+      <c r="C59" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D59" s="21" t="n">
+      <c r="D59" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E59" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F59" s="21" t="n">
+      <c r="F59" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G59" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="18" t="n">
+      <c r="A60" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="B60" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C60" s="22" t="inlineStr">
+      <c r="B60" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C60" s="23" t="inlineStr">
         <is>
           <t>76,20-3"</t>
         </is>
       </c>
-      <c r="D60" s="23" t="n">
+      <c r="D60" s="24" t="n">
         <v>229</v>
       </c>
-      <c r="E60" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="23" t="n">
+      <c r="E60" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="24" t="n">
         <v>229</v>
       </c>
       <c r="G60" s="12" t="n">
-        <v>2.29</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="18" t="n">
+      <c r="A61" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="B61" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C61" s="22" t="inlineStr">
+      <c r="B61" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C61" s="23" t="inlineStr">
         <is>
           <t>100X40</t>
         </is>
       </c>
-      <c r="D61" s="23" t="n">
+      <c r="D61" s="24" t="n">
         <v>161</v>
       </c>
-      <c r="E61" s="18" t="n">
+      <c r="E61" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F61" s="23" t="n">
+      <c r="F61" s="24" t="n">
         <v>483</v>
       </c>
       <c r="G61" s="12" t="n">
-        <v>4.83</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="18" t="n">
+      <c r="A62" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="B62" s="19" t="inlineStr">
+      <c r="B62" s="20" t="inlineStr">
         <is>
           <t>ÂNCORA</t>
         </is>
       </c>
-      <c r="C62" s="20" t="inlineStr">
+      <c r="C62" s="21" t="inlineStr">
         <is>
           <t>152,40-6"</t>
         </is>
       </c>
-      <c r="D62" s="21" t="n">
+      <c r="D62" s="22" t="n">
         <v>469</v>
       </c>
       <c r="E62" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="21" t="n">
+      <c r="F62" s="22" t="n">
         <v>469</v>
       </c>
       <c r="G62" s="12" t="n">
-        <v>4.69</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="18" t="n">
+      <c r="A63" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="B63" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C63" s="22" t="inlineStr">
+      <c r="B63" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C63" s="23" t="inlineStr">
         <is>
           <t>114,00-4.1/2"</t>
         </is>
       </c>
-      <c r="D63" s="23" t="n">
+      <c r="D63" s="24" t="n">
         <v>349</v>
       </c>
-      <c r="E63" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="23" t="n">
+      <c r="E63" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="24" t="n">
         <v>349</v>
       </c>
       <c r="G63" s="12" t="n">
-        <v>3.49</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="18" t="n">
+      <c r="A64" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="B64" s="18" t="inlineStr">
-        <is>
-          <t>Complementar</t>
-        </is>
-      </c>
-      <c r="C64" s="22" t="inlineStr">
+      <c r="B64" s="19" t="inlineStr">
+        <is>
+          <t>Complementar</t>
+        </is>
+      </c>
+      <c r="C64" s="23" t="inlineStr">
         <is>
           <t>100X50</t>
         </is>
       </c>
-      <c r="D64" s="23" t="n">
+      <c r="D64" s="24" t="n">
         <v>181</v>
       </c>
-      <c r="E64" s="18" t="n">
+      <c r="E64" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F64" s="23" t="n">
+      <c r="F64" s="24" t="n">
         <v>362</v>
       </c>
       <c r="G64" s="12" t="n">
-        <v>3.62</v>
+        <v>3620</v>
       </c>
     </row>
   </sheetData>
